--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>MAE_or</t>
   </si>
@@ -50,6 +50,24 @@
   </si>
   <si>
     <t>r2_cal</t>
+  </si>
+  <si>
+    <t>MAE_tr</t>
+  </si>
+  <si>
+    <t>MSE_tr</t>
+  </si>
+  <si>
+    <t>RMSE_tr</t>
+  </si>
+  <si>
+    <t>MAPE_tr</t>
+  </si>
+  <si>
+    <t>ME_tr</t>
+  </si>
+  <si>
+    <t>r2_tr</t>
   </si>
   <si>
     <t>Eq.1 (Romanenko)</t>
@@ -467,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,10 +528,28 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>1.114905218302993</v>
@@ -551,10 +587,28 @@
       <c r="M2">
         <v>0.7125973255630645</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.84073991661615</v>
+      </c>
+      <c r="O2">
+        <v>1.206581138142671</v>
+      </c>
+      <c r="P2">
+        <v>1.098444872600656</v>
+      </c>
+      <c r="Q2">
+        <v>47.80761582091964</v>
+      </c>
+      <c r="R2">
+        <v>0.687594334313075</v>
+      </c>
+      <c r="S2">
+        <v>0.7056280266967966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>1.624817106268502</v>
@@ -592,10 +646,28 @@
       <c r="M3">
         <v>0.7540171041358593</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0.7482752781868885</v>
+      </c>
+      <c r="O3">
+        <v>0.9600988207505629</v>
+      </c>
+      <c r="P3">
+        <v>0.9798463250686624</v>
+      </c>
+      <c r="Q3">
+        <v>43.14843560774903</v>
+      </c>
+      <c r="R3">
+        <v>0.7514130614676118</v>
+      </c>
+      <c r="S3">
+        <v>0.7516853382546603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>1.284056428849001</v>
@@ -633,10 +705,28 @@
       <c r="M4">
         <v>0.7188924670864391</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0.8219168437550652</v>
+      </c>
+      <c r="O4">
+        <v>1.056373837791607</v>
+      </c>
+      <c r="P4">
+        <v>1.027800485401523</v>
+      </c>
+      <c r="Q4">
+        <v>55.34996481796306</v>
+      </c>
+      <c r="R4">
+        <v>0.7264857193793495</v>
+      </c>
+      <c r="S4">
+        <v>0.7275187311624185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>1.69583450137905</v>
@@ -674,10 +764,28 @@
       <c r="M5">
         <v>0.7160083625441445</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0.8208388397635635</v>
+      </c>
+      <c r="O5">
+        <v>1.082153572698884</v>
+      </c>
+      <c r="P5">
+        <v>1.04026610667602</v>
+      </c>
+      <c r="Q5">
+        <v>53.5134702594744</v>
+      </c>
+      <c r="R5">
+        <v>0.7198108800417001</v>
+      </c>
+      <c r="S5">
+        <v>0.7198108800417131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>1.309973946621736</v>
@@ -715,10 +823,28 @@
       <c r="M6">
         <v>0.7307507015065031</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0.7799326383928791</v>
+      </c>
+      <c r="O6">
+        <v>1.011933886138172</v>
+      </c>
+      <c r="P6">
+        <v>1.005949246303298</v>
+      </c>
+      <c r="Q6">
+        <v>45.20183560991457</v>
+      </c>
+      <c r="R6">
+        <v>0.7379920261170437</v>
+      </c>
+      <c r="S6">
+        <v>0.7385794057947042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>1.280894516753638</v>
@@ -756,10 +882,28 @@
       <c r="M7">
         <v>0.8553865571967832</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0.515300722706108</v>
+      </c>
+      <c r="O7">
+        <v>0.5230408314228558</v>
+      </c>
+      <c r="P7">
+        <v>0.7232156189013452</v>
+      </c>
+      <c r="Q7">
+        <v>29.37309512338503</v>
+      </c>
+      <c r="R7">
+        <v>0.8645752747522407</v>
+      </c>
+      <c r="S7">
+        <v>0.8649174378973892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>1.601613921037567</v>
@@ -797,10 +941,28 @@
       <c r="M8">
         <v>0.8553866432393508</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0.5153019619756993</v>
+      </c>
+      <c r="O8">
+        <v>0.523040831903816</v>
+      </c>
+      <c r="P8">
+        <v>0.7232156192338604</v>
+      </c>
+      <c r="Q8">
+        <v>29.37339932756181</v>
+      </c>
+      <c r="R8">
+        <v>0.8645752746277114</v>
+      </c>
+      <c r="S8">
+        <v>0.8649175911434628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>0.4673376057025587</v>
@@ -838,10 +1000,28 @@
       <c r="M9">
         <v>0.8857355902104576</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.4762441332043752</v>
+      </c>
+      <c r="O9">
+        <v>0.4151614097185087</v>
+      </c>
+      <c r="P9">
+        <v>0.6443302023950986</v>
+      </c>
+      <c r="Q9">
+        <v>33.33105519350939</v>
+      </c>
+      <c r="R9">
+        <v>0.8925072069580978</v>
+      </c>
+      <c r="S9">
+        <v>0.8925072069580979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>0.5235506815036969</v>
@@ -862,27 +1042,45 @@
         <v>0.8961784675321177</v>
       </c>
       <c r="H10">
-        <v>1.606212308616368</v>
+        <v>0.423513149854946</v>
       </c>
       <c r="I10">
-        <v>3.478881554638777</v>
+        <v>0.3772584284019147</v>
       </c>
       <c r="J10">
-        <v>1.865176011704734</v>
+        <v>0.6142136667332588</v>
       </c>
       <c r="K10">
-        <v>74.58660246353013</v>
+        <v>24.04072077650301</v>
       </c>
       <c r="L10">
-        <v>0.08573677476049113</v>
+        <v>0.9008550587071262</v>
       </c>
       <c r="M10">
-        <v>0.8961053426193114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.9016711456998099</v>
+      </c>
+      <c r="N10">
+        <v>0.4153102562113989</v>
+      </c>
+      <c r="O10">
+        <v>0.3558132028723484</v>
+      </c>
+      <c r="P10">
+        <v>0.5965007987189526</v>
+      </c>
+      <c r="Q10">
+        <v>24.31615475203516</v>
+      </c>
+      <c r="R10">
+        <v>0.9078735304327382</v>
+      </c>
+      <c r="S10">
+        <v>0.9082158213071775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>0.707408271104737</v>
@@ -920,10 +1118,28 @@
       <c r="M11">
         <v>0.9087408161522352</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0.357961232178416</v>
+      </c>
+      <c r="O11">
+        <v>0.3292947756775786</v>
+      </c>
+      <c r="P11">
+        <v>0.5738421173786207</v>
+      </c>
+      <c r="Q11">
+        <v>14.64294253496036</v>
+      </c>
+      <c r="R11">
+        <v>0.914739630555524</v>
+      </c>
+      <c r="S11">
+        <v>0.9180666752008412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>1.153932292578912</v>
@@ -961,10 +1177,28 @@
       <c r="M12">
         <v>0.9005240620833144</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.4337408261349388</v>
+      </c>
+      <c r="O12">
+        <v>0.360596007991851</v>
+      </c>
+      <c r="P12">
+        <v>0.6004964679262077</v>
+      </c>
+      <c r="Q12">
+        <v>27.61843420634286</v>
+      </c>
+      <c r="R12">
+        <v>0.906635175737828</v>
+      </c>
+      <c r="S12">
+        <v>0.9081458307018819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>0.8571550818136801</v>
@@ -1002,10 +1236,28 @@
       <c r="M13">
         <v>0.8839717781504531</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.459471490957871</v>
+      </c>
+      <c r="O13">
+        <v>0.4249045799458637</v>
+      </c>
+      <c r="P13">
+        <v>0.651847052571279</v>
+      </c>
+      <c r="Q13">
+        <v>24.02478892724872</v>
+      </c>
+      <c r="R13">
+        <v>0.889984524077887</v>
+      </c>
+      <c r="S13">
+        <v>0.890692786485581</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>0.5769807303251164</v>
@@ -1043,10 +1295,28 @@
       <c r="M14">
         <v>0.8818880761938392</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.4670767667725075</v>
+      </c>
+      <c r="O14">
+        <v>0.4229570038425562</v>
+      </c>
+      <c r="P14">
+        <v>0.6503514464061384</v>
+      </c>
+      <c r="Q14">
+        <v>31.21938660864355</v>
+      </c>
+      <c r="R14">
+        <v>0.8904887867335807</v>
+      </c>
+      <c r="S14">
+        <v>0.8904887867336009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>0.7256948914398522</v>
@@ -1084,10 +1354,28 @@
       <c r="M15">
         <v>0.9002269112723656</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.4100463198398805</v>
+      </c>
+      <c r="O15">
+        <v>0.3553973331531641</v>
+      </c>
+      <c r="P15">
+        <v>0.5961521057189718</v>
+      </c>
+      <c r="Q15">
+        <v>21.18608094630648</v>
+      </c>
+      <c r="R15">
+        <v>0.9079812066199036</v>
+      </c>
+      <c r="S15">
+        <v>0.9079812066199099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>0.5396127517885215</v>
@@ -1125,10 +1413,28 @@
       <c r="M16">
         <v>0.926027695917504</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.3574293354302711</v>
+      </c>
+      <c r="O16">
+        <v>0.2536811070228989</v>
+      </c>
+      <c r="P16">
+        <v>0.503667655327299</v>
+      </c>
+      <c r="Q16">
+        <v>25.30097764655129</v>
+      </c>
+      <c r="R16">
+        <v>0.934317376091525</v>
+      </c>
+      <c r="S16">
+        <v>0.9358909893881214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>1.681772999093823</v>
@@ -1166,10 +1472,28 @@
       <c r="M17">
         <v>0.7745452451148914</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0.761172496056864</v>
+      </c>
+      <c r="O17">
+        <v>1.052843284620455</v>
+      </c>
+      <c r="P17">
+        <v>1.026081519481008</v>
+      </c>
+      <c r="Q17">
+        <v>35.51931368350997</v>
+      </c>
+      <c r="R17">
+        <v>0.7273998434103073</v>
+      </c>
+      <c r="S17">
+        <v>0.7741805365716017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>1.125435681234778</v>
@@ -1207,10 +1531,28 @@
       <c r="M18">
         <v>0.776320831428754</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.7657950311563995</v>
+      </c>
+      <c r="O18">
+        <v>1.066581049349283</v>
+      </c>
+      <c r="P18">
+        <v>1.032754108851319</v>
+      </c>
+      <c r="Q18">
+        <v>34.69047875668944</v>
+      </c>
+      <c r="R18">
+        <v>0.7238428878111454</v>
+      </c>
+      <c r="S18">
+        <v>0.7751872251285193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>1.052473786850226</v>
@@ -1248,10 +1590,28 @@
       <c r="M19">
         <v>0.8295423304721906</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0.6299675668428945</v>
+      </c>
+      <c r="O19">
+        <v>0.6593448709953675</v>
+      </c>
+      <c r="P19">
+        <v>0.8120005363270196</v>
+      </c>
+      <c r="Q19">
+        <v>36.98472989593338</v>
+      </c>
+      <c r="R19">
+        <v>0.8292836952037526</v>
+      </c>
+      <c r="S19">
+        <v>0.8293849910394926</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>0.780572341871029</v>
@@ -1289,10 +1649,28 @@
       <c r="M20">
         <v>0.9086620508970327</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0.4007662114371423</v>
+      </c>
+      <c r="O20">
+        <v>0.33129592568787</v>
+      </c>
+      <c r="P20">
+        <v>0.5755831179663542</v>
+      </c>
+      <c r="Q20">
+        <v>24.123925169314</v>
+      </c>
+      <c r="R20">
+        <v>0.9142214966469607</v>
+      </c>
+      <c r="S20">
+        <v>0.9142221926309912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>0.4867248496354364</v>
@@ -1329,6 +1707,24 @@
       </c>
       <c r="M21">
         <v>0.9111886479632356</v>
+      </c>
+      <c r="N21">
+        <v>0.4138709543993681</v>
+      </c>
+      <c r="O21">
+        <v>0.3299913284816157</v>
+      </c>
+      <c r="P21">
+        <v>0.57444871701625</v>
+      </c>
+      <c r="Q21">
+        <v>25.73323765274334</v>
+      </c>
+      <c r="R21">
+        <v>0.9145592804443277</v>
+      </c>
+      <c r="S21">
+        <v>0.9148872467197487</v>
       </c>
     </row>
   </sheetData>
